--- a/2019/finance_2019.xlsx
+++ b/2019/finance_2019.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,18 +11,178 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+  <si>
+    <t>支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熏肉大饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7'(小鸡儿请)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.4'(霞姐请)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-130'(小令请)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三晋饭庄曾老师请客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和信摩尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东门烧烤、毛豆、螺蛳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8.6'(霞姐请)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭套餐、包子、冰镇水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭套餐、包子、冰镇水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南站送霞姐去北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余利宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥雪冰激凌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南站回来天气太热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正装衬衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买老孙的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.01'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.02'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.03'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安面皮、担担面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12'(请小鸡儿)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,19 +206,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +509,253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="8.125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>2019.06</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>0.34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>63</v>
+      </c>
+      <c r="I7">
+        <v>0.34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>0.34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>1.5</v>
+      </c>
+      <c r="I14">
+        <v>0.34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>0.34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2019/finance_2019.xlsx
+++ b/2019/finance_2019.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>支出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>买老孙的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>06.01'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,6 +159,50 @@
   </si>
   <si>
     <t>-0.5'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-8'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用小鸡儿卡刷发微信红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐公交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去柳巷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T恤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳巷海澜之家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买老孙(自强)的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +220,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -206,9 +255,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -510,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -521,9 +571,10 @@
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
     <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="8.125" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -531,37 +582,37 @@
         <v>2019.06</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>0.34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -569,8 +620,8 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -598,15 +649,15 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
         <v>63</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>0.34</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -635,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -646,10 +697,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -665,23 +716,23 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <v>1.5</v>
-      </c>
-      <c r="I14">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2">
+        <v>88.5</v>
+      </c>
+      <c r="I14" s="2">
         <v>0.34</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -710,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -721,10 +772,43 @@
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
